--- a/practica 2/diagramas/Ejer 10 diagramas.xlsx
+++ b/practica 2/diagramas/Ejer 10 diagramas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin\Desktop\facu\2do\2do semestre\iso\practica 2\diagramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D12EA4-E072-45D6-AEBD-9F1A049AC2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03A917A-F95E-498B-A475-693062ADD854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F3C26C5-EAC1-4DE2-8762-0EC3913B553E}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11385" xr2:uid="{4F3C26C5-EAC1-4DE2-8762-0EC3913B553E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Proceso</t>
   </si>
@@ -99,24 +99,12 @@
     <t>R3</t>
   </si>
   <si>
-    <t>5&lt;</t>
-  </si>
-  <si>
     <t>P5</t>
   </si>
   <si>
     <t>Queue</t>
   </si>
   <si>
-    <t>Queue R1</t>
-  </si>
-  <si>
-    <t>Queue R2</t>
-  </si>
-  <si>
-    <t>Queue R3</t>
-  </si>
-  <si>
     <t>10)</t>
   </si>
   <si>
@@ -124,6 +112,9 @@
   </si>
   <si>
     <t>Queue AUX</t>
+  </si>
+  <si>
+    <t>4,5&lt;</t>
   </si>
 </sst>
 </file>
@@ -540,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FFC02D-8582-4E9F-B3EA-5BBCD2C511B5}">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +544,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -656,8 +647,8 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
+      <c r="F3" s="2">
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
@@ -688,10 +679,10 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -728,28 +719,30 @@
       <c r="O4" s="2">
         <v>4</v>
       </c>
-      <c r="P4" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="V4" s="2">
+        <v>5</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="5">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AB4" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -783,25 +776,25 @@
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="Q5" s="2">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="2">
-        <v>3</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AB5" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -830,43 +823,41 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2">
+      <c r="P6" s="2">
         <v>1</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="2">
+        <v>2</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2">
+        <v>3</v>
+      </c>
+      <c r="X6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2">
-        <v>2</v>
-      </c>
-      <c r="V6" s="2">
-        <v>3</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="2"/>
       <c r="AA6" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB6" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
         <v>8</v>
@@ -893,34 +884,34 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2">
+      <c r="S7" s="2"/>
+      <c r="T7" s="2">
         <v>1</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="5">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="5">
         <v>6</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
@@ -929,27 +920,29 @@
         <v>2</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7">
         <v>3</v>
       </c>
-      <c r="J8" s="7">
+      <c r="K8" s="7">
         <v>4</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L8" s="7">
         <v>3</v>
-      </c>
-      <c r="L8" s="7">
-        <v>2</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>3</v>
-      </c>
-      <c r="O8" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="O8" s="8">
+        <v>4</v>
+      </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
@@ -962,21 +955,17 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="4">
-        <f>AVERAGE(AA3:AA7)</f>
-        <v>10.8</v>
+        <f>AVERAGE(AA1:AA5)</f>
+        <v>11</v>
       </c>
       <c r="AB8" s="4">
-        <f>AVERAGE(AB3:AB7)</f>
-        <v>6.6</v>
+        <f>AVERAGE(AB1:AB5)</f>
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -999,15 +988,9 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2</v>
-      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1029,15 +1012,9 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="7">
-        <v>4</v>
-      </c>
-      <c r="G11" s="7">
-        <v>4</v>
-      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1060,13 +1037,13 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E12" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F12" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1074,9 +1051,7 @@
       <c r="I12" s="7">
         <v>4</v>
       </c>
-      <c r="J12" s="7">
-        <v>4</v>
-      </c>
+      <c r="J12" s="7"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
